--- a/bin/xlsx/type/ItemUseType.xlsx
+++ b/bin/xlsx/type/ItemUseType.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\shoot\bin\xlsx\type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fenghaiyu/workspace/simple_game_server/bin/xlsx/type/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B5830-C9CD-2847-8DD1-5457F02C03B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemUseType" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -36,83 +42,48 @@
     <t>描述</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>openBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打开礼包</t>
-    <rPh sb="2" eb="3">
-      <t>gong'ju</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
   <si>
     <t>消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -121,33 +92,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,44 +110,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -209,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -251,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,20 +279,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -488,27 +410,61 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="49.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,63 +475,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>